--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_FOU_GAAPSourceObjectProfile_AddNewProfile.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_FOU_GAAPSourceObjectProfile_AddNewProfile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\Rstars-Automation\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4AF919-72E8-4B29-8F3C-7319C0775D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4181B9A1-1C6D-441B-AC32-CC390C65310E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -562,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -731,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{657FDA5A-72D7-458E-9F39-746AC8B4C71C}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
